--- a/db/rose.xlsx
+++ b/db/rose.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,7 +379,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="C2" s="1">
         <v>650</v>
